--- a/biology/Zoologie/Furcifer_oustaleti/Furcifer_oustaleti.xlsx
+++ b/biology/Zoologie/Furcifer_oustaleti/Furcifer_oustaleti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caméléon d'Oustalet, Caméléon géant de Madagascar
-Furcifer oustaleti, le Caméléon d'Oustalet ou Caméléon géant de Madagascar[1] est une espèce de sauriens de la famille des Chamaeleonidae[2].
+Furcifer oustaleti, le Caméléon d'Oustalet ou Caméléon géant de Madagascar est une espèce de sauriens de la famille des Chamaeleonidae.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Émile Oustalet[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Émile Oustalet.
 </t>
         </is>
       </c>
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,6 +586,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -596,6 +614,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -621,9 +641,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Madagascar[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Madagascar.
 </t>
         </is>
       </c>
@@ -652,7 +674,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Mocquard, 1894 : Reptiles nouveaux ou insuffisamment connus de Madagascar. Compte-Rendu Sommaire des Séances de la Société philomathique de Paris, sér. 8, vol. 6, no 17, p. 1-10 (texte intégral).</t>
         </is>
